--- a/testdata/UserData.xlsx
+++ b/testdata/UserData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipal\RestAssuared_WP\PetStoreAutomation\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D0E5B8-B893-443C-B220-D10A68B9B344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{18DD8EF5-2779-46A5-958B-40FECF8D2BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,6 +528,7 @@
         <v>4345335455</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
